--- a/results/FrequencyTables/27341108_gRNA-8.xlsx
+++ b/results/FrequencyTables/27341108_gRNA-8.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.0167300380228137</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.00532319391634981</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.00456273764258555</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.0372623574144487</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.149809885931559</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0.746768060836502</v>
       </c>
       <c r="H2">
-        <v>0.0106382978723404</v>
+        <v>0.0091254752851711</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0212927756653992</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.0661596958174905</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0.96958174904943</v>
       </c>
       <c r="L2">
-        <v>0.0106382978723404</v>
+        <v>0.00836501901140684</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.00532319391634981</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.00608365019011407</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.0174904942965779</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.00836501901140684</v>
       </c>
       <c r="R2">
-        <v>0.0638297872340425</v>
+        <v>0.109505703422053</v>
       </c>
       <c r="S2">
-        <v>0.0106382978723404</v>
+        <v>0.0479087452471483</v>
       </c>
       <c r="T2">
-        <v>0.0425531914893617</v>
+        <v>0.0129277566539924</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.00456273764258555</v>
       </c>
       <c r="V2">
-        <v>0.0106382978723404</v>
+        <v>0.0091254752851711</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.0167300380228137</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.000760456273764259</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,28 +539,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.00304182509505703</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.0456273764258555</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.187072243346008</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.942965779467681</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.793916349809886</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.00684410646387833</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.00228136882129278</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.00304182509505703</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -569,43 +569,43 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.00684410646387833</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.000760456273764259</v>
       </c>
       <c r="N3">
-        <v>0.702127659574468</v>
+        <v>0.695817490494297</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.00380228136882129</v>
       </c>
       <c r="P3">
-        <v>0.0425531914893617</v>
+        <v>0.0365019011406844</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.0106382978723404</v>
+        <v>0.0182509505703422</v>
       </c>
       <c r="S3">
-        <v>0.98936170212766</v>
+        <v>0.920912547528517</v>
       </c>
       <c r="T3">
-        <v>0.957446808510638</v>
+        <v>0.982509505703422</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.00304182509505703</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.0152091254752852</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.00152091254752852</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.00152091254752852</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.00304182509505703</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.00380228136882129</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.00608365019011407</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.0159695817490494</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.0532319391634981</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.244106463878327</v>
       </c>
       <c r="H4">
-        <v>0.98936170212766</v>
+        <v>0.978707224334601</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.974904942965779</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.926996197718631</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.0091254752851711</v>
       </c>
       <c r="L4">
-        <v>0.98936170212766</v>
+        <v>0.984790874524715</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0.993916349809886</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.000760456273764259</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.996197718631179</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.00836501901140684</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0.990874524714829</v>
       </c>
       <c r="R4">
-        <v>0.925531914893617</v>
+        <v>0.864638783269962</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.000760456273764259</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.0106382978723404</v>
+        <v>0.0197718631178707</v>
       </c>
       <c r="V4">
-        <v>0.98936170212766</v>
+        <v>0.974144486692015</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0.979467680608365</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.995437262357414</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,34 +687,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.977186311787072</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.945247148288973</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.802281368821293</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.00380228136882129</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.00304182509505703</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.00152091254752852</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.00988593155893536</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.000760456273764259</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.00684410646387833</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.0212927756653992</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -723,34 +723,34 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.297872340425532</v>
+        <v>0.297338403041825</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.957446808510638</v>
+        <v>0.937642585551331</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.000760456273764259</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.00760456273764259</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.0304182509505703</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.00456273764258555</v>
       </c>
       <c r="U5">
-        <v>0.98936170212766</v>
+        <v>0.972623574144487</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.000760456273764259</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.00228136882129278</v>
       </c>
       <c r="X5">
         <v>0</v>
